--- a/bitmex.xlsx
+++ b/bitmex.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Bitmex</t>
+    <t>BitmexSwap</t>
   </si>
   <si>
     <t>盈利</t>
@@ -50,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
@@ -1086,12 +1086,12 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.25"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="5" width="9" style="3"/>
     <col min="6" max="6" width="9" style="4"/>
@@ -1137,7 +1137,7 @@
         <v>1.41</v>
       </c>
       <c r="F2" s="8">
-        <f>B2/(E2-B2)</f>
+        <f t="shared" ref="F2:F7" si="0">B2/(E2-B2)</f>
         <v>0.0217391304347826</v>
       </c>
       <c r="H2"/>
@@ -1160,7 +1160,7 @@
         <v>1.13</v>
       </c>
       <c r="F3" s="10">
-        <f>B3/(E3-B3)</f>
+        <f t="shared" si="0"/>
         <v>-0.198581560283688</v>
       </c>
       <c r="H3" t="s">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I3" s="3">
         <f>SUM(B2:B100)</f>
-        <v>1.55</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1188,7 +1188,7 @@
         <v>1.51</v>
       </c>
       <c r="F4" s="8">
-        <f>B4/(E4-B4)</f>
+        <f t="shared" si="0"/>
         <v>0.336283185840708</v>
       </c>
       <c r="H4" t="s">
@@ -1216,15 +1216,15 @@
         <v>4.33</v>
       </c>
       <c r="F5" s="8">
-        <f>B5/(E5-B5)</f>
+        <f t="shared" si="0"/>
         <v>0.361635220125786</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="11">
-        <f>AVERAGE(F2:F6)</f>
-        <v>0.119512645648447</v>
+        <f>AVERAGE(F2:F100)</f>
+        <v>0.0178454090303426</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B6" s="7">
         <f>E6-E5-D6</f>
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="C6" s="3">
         <v>2.25</v>
@@ -1242,18 +1242,34 @@
         <v>-0.8</v>
       </c>
       <c r="E6" s="3">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F6" s="8">
-        <f>B6/(E6-B6)</f>
-        <v>0.0764872521246458</v>
+        <f t="shared" si="0"/>
+        <v>0.0481586402266289</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" s="6">
         <v>43626</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="9">
+        <f>E7-E6-D7</f>
+        <v>-1.71</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.462162162162162</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6">

--- a/bitmex.xlsx
+++ b/bitmex.xlsx
@@ -50,9 +50,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -104,6 +104,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -111,9 +165,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,16 +187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,9 +197,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,14 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,21 +220,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -196,17 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,35 +243,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,25 +257,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,157 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,80 +448,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,8 +469,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -732,7 +732,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1137,7 +1137,7 @@
         <v>1.41</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F7" si="0">B2/(E2-B2)</f>
+        <f t="shared" ref="F2:F8" si="0">B2/(E2-B2)</f>
         <v>0.0217391304347826</v>
       </c>
       <c r="H2"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I3" s="3">
         <f>SUM(B2:B100)</f>
-        <v>-0.26</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="I5" s="11">
         <f>AVERAGE(F2:F100)</f>
-        <v>0.0178454090303426</v>
+        <v>-0.00336868744994326</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1271,11 +1271,27 @@
         <v>-0.462162162162162</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8" s="6">
         <v>43658</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="9">
+        <f>E8-E7-D8</f>
+        <v>-0.26</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.130653266331658</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6">
